--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9173.392803391376</v>
+        <v>1825505.167874885</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9173.392803391376</v>
+        <v>1825505.167874885</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9235.100707272712</v>
+        <v>554106.0424363627</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9235.100707272712</v>
+        <v>554106.0424363627</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960114925.0106354</v>
+        <v>40237684.91726381</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9707.144149582837</v>
+        <v>1040909.923940926</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17934.08317279925</v>
+        <v>1828020.574148797</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26161.02219601565</v>
+        <v>2615131.22435667</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34715.81130756877</v>
+        <v>3380332.336236245</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43037.14226170861</v>
+        <v>4167202.267566799</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51358.47321584844</v>
+        <v>4954072.198897351</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59677.84502135818</v>
+        <v>5741182.84910522</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67997.21682686794</v>
+        <v>6528293.499313088</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76963.6927377415</v>
+        <v>7253016.742802933</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85556.91025290197</v>
+        <v>8026758.381697495</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93911.01357263075</v>
+        <v>8820780.603234962</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102230.3853781405</v>
+        <v>9607891.253442839</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110549.7571836502</v>
+        <v>10395001.90365072</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118869.1289891599</v>
+        <v>11182112.55385859</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>127968.8344086918</v>
+        <v>11921932.51624205</v>
       </c>
     </row>
   </sheetData>
